--- a/biology/Zoologie/Cophixalus_verrucosus/Cophixalus_verrucosus.xlsx
+++ b/biology/Zoologie/Cophixalus_verrucosus/Cophixalus_verrucosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cophixalus verrucosus est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cophixalus verrucosus est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Papouasie-Nouvelle-Guinée. Son aire de répartition concerne le Sud et l'Est de l'île, y compris les îles de l'archipel d'Entrecasteaux. Elle est présente jusqu'à 1 600 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Papouasie-Nouvelle-Guinée. Son aire de répartition concerne le Sud et l'Est de l'île, y compris les îles de l'archipel d'Entrecasteaux. Elle est présente jusqu'à 1 600 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Boulenger, 1898 : An Account of the Reptiles and Batrachians collected by Dr. L. Loria in British New Guinea. Annali del Museo Civico di Storia Naturale di Genova, sér. 2, vol. 18, no 38, p. 694-710 (texte intégral).
 Hiaso, 2002 : A new species of Cophixalus (Anura: Microhylidae) from Tagula Island, New Guinea. Science in New Guinea, vol. 27, p. 96-100.</t>
